--- a/datos_generales.xlsx
+++ b/datos_generales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I279"/>
+  <dimension ref="A1:I286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7420,7 +7420,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Expansión </t>
+          <t xml:space="preserve">Expansion </t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t xml:space="preserve">Expansión </t>
+          <t xml:space="preserve">Expansion </t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -7502,7 +7502,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Expansión </t>
+          <t xml:space="preserve">Expansion </t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -9953,52 +9953,52 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t xml:space="preserve">pruba empresa segmentada </t>
+          <t>Rappi V1-47</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>cierre</t>
+          <t>Patinar</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>rematar sábado y lunes</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>54:27:25</t>
+          <t>07:32:30</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>54.45708333</t>
+          <t>7.54166667</t>
         </is>
       </c>
       <c r="G233" t="n">
-        <v>54.19069444</v>
+        <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>plana</t>
+          <t>mesa</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Rappi V1-47</t>
+          <t>Didi V1</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -10008,17 +10008,17 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>rematar sábado y lunes</t>
+          <t>rematar modulos</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>07:32:30</t>
+          <t>01:28:12</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>7.54166667</t>
+          <t>1.47000000</t>
         </is>
       </c>
       <c r="G234" t="n">
@@ -10035,48 +10035,48 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Didi V1</t>
+          <t>Didi 2024</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Patinar</t>
+          <t>Espalda</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>rematar modulos</t>
+          <t>Pulmones + Riñonera</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>01:28:12</t>
+          <t>08:26:56</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>1.47000000</t>
+          <t>8.44915033</t>
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0</v>
+        <v>3.78466529</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>mesa</t>
+          <t>Plana</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -10090,24 +10090,24 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Pulmones + Riñonera</t>
+          <t>Correa a Oreja</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>08:00:29</t>
+          <t>06:43:30</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>8.00820000</t>
+          <t>6.72508170</t>
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.1453739</v>
+        <v>6.69174807</v>
       </c>
       <c r="H236" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I236" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -10131,24 +10131,24 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Correa a Oreja</t>
+          <t>Atraque X2 correa oreja</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>06:16:34</t>
+          <t>14:01:18</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>6.27629630</t>
+          <t>14.02182540</t>
         </is>
       </c>
       <c r="G237" t="n">
-        <v>6.74740618</v>
+        <v>22.64428871</v>
       </c>
       <c r="H237" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I237" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -10172,24 +10172,24 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Atraque X2 correa oreja</t>
+          <t>Aleta</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>09:52:30</t>
+          <t>03:24:31</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>9.87500000</t>
+          <t>3.40884503</t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>9.221491439999999</v>
+        <v>1.63405089</v>
       </c>
       <c r="H238" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I238" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1025</v>
+        <v>1035</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -10213,34 +10213,34 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Aleta</t>
+          <t>Dobladillo manopla</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>03:15:22</t>
+          <t>05:42:15</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>3.25624074</t>
+          <t>5.70419192</t>
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.3782165</v>
+        <v>3.64876388</v>
       </c>
       <c r="H239" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Plana</t>
+          <t>plana</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -10254,24 +10254,24 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Dobladillo manopla</t>
+          <t>Hacer manopla</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>04:14:37</t>
+          <t>04:10:02</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>4.24380952</t>
+          <t>4.16743827</t>
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.8634491</v>
+        <v>2.17947331</v>
       </c>
       <c r="H240" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I240" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -10295,24 +10295,24 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Hacer manopla</t>
+          <t>Velcro ancho espalda</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>04:10:02</t>
+          <t>07:31:28</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>4.16743827</t>
+          <t>7.52459596</t>
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.17947331</v>
+        <v>8.233298570000001</v>
       </c>
       <c r="H241" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I241" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -10336,24 +10336,24 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Velcro ancho espalda</t>
+          <t>Atraques + X manija</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>07:08:34</t>
+          <t>10:41:30</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>7.14279630</t>
+          <t>10.69189276</t>
         </is>
       </c>
       <c r="G242" t="n">
-        <v>7.86175359</v>
+        <v>7.93225393</v>
       </c>
       <c r="H242" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I242" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -10377,24 +10377,24 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Atraques + X manija</t>
+          <t>Chapa manija</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>11:22:56</t>
+          <t>05:34:02</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>11.38247396</t>
+          <t>5.56743590</t>
         </is>
       </c>
       <c r="G243" t="n">
-        <v>9.057934729999999</v>
+        <v>1.88234503</v>
       </c>
       <c r="H243" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I243" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -10418,24 +10418,24 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Chapa manija</t>
+          <t>Tenedor manija</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>05:32:22</t>
+          <t>07:56:52</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>5.53969444</t>
+          <t>7.94801282</t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2.000407</v>
+        <v>3.7624103</v>
       </c>
       <c r="H244" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I244" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -10459,24 +10459,24 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Tenedor manija</t>
+          <t>Parchar manijas</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>07:43:12</t>
+          <t>11:08:09</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>7.72000000</t>
+          <t>11.13591592</t>
         </is>
       </c>
       <c r="G245" t="n">
-        <v>3.83378293</v>
+        <v>7.26885511</v>
       </c>
       <c r="H245" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="I245" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -10500,24 +10500,24 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Parchar manijas</t>
+          <t>Oreja + Aleta a espalda</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>11:59:20</t>
+          <t>10:55:31</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>11.98904762</t>
+          <t>10.92540741</t>
         </is>
       </c>
       <c r="G246" t="n">
-        <v>8.092723339999999</v>
+        <v>6.1962674</v>
       </c>
       <c r="H246" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I246" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -10541,34 +10541,34 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Oreja + Aleta a espalda</t>
+          <t>Cyc espalda</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>11:26:07</t>
+          <t>12:58:15</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>11.43535354</t>
+          <t>12.97109568</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>6.58031791</v>
+        <v>13.55594908</v>
       </c>
       <c r="H247" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>plana</t>
+          <t>cyc</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -10577,39 +10577,39 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Espalda</t>
+          <t>Frente</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Cyc espalda</t>
+          <t>Reflectivo frente</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>09:33:03</t>
+          <t>02:33:16</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>9.55085317</t>
+          <t>2.55450000</t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.24203851</v>
+        <v>1.27350292</v>
       </c>
       <c r="H248" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>cyc</t>
+          <t>Dos agujas</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -10623,24 +10623,24 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Reflectivo frente</t>
+          <t>Velcro macho frente</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>02:26:55</t>
+          <t>03:09:52</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>2.44885556</t>
+          <t>3.16444444</t>
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.3041214</v>
+        <v>1.25269921</v>
       </c>
       <c r="H249" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I249" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -10664,24 +10664,24 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Velcro macho frente</t>
+          <t>Velcro hembra frente</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>03:09:52</t>
+          <t>02:19:28</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>3.16444444</t>
+          <t>2.32465278</t>
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.25269921</v>
+        <v>0.93385155</v>
       </c>
       <c r="H250" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I250" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -10705,34 +10705,34 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Velcro hembra frente</t>
+          <t>Cyc frente</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>02:18:26</t>
+          <t>10:31:37</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>2.30746032</t>
+          <t>10.52715278</t>
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.96672491</v>
+        <v>6.32758373</v>
       </c>
       <c r="H251" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Dos agujas</t>
+          <t>Cyc</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -10746,34 +10746,34 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Cyc frente</t>
+          <t>Falsito</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>10:24:32</t>
+          <t>08:57:20</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>10.40902778</t>
+          <t>8.95579630</t>
         </is>
       </c>
       <c r="G252" t="n">
-        <v>6.74518006</v>
+        <v>6.63472915</v>
       </c>
       <c r="H252" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Cyc</t>
+          <t>Plana</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -10782,39 +10782,39 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Frente</t>
+          <t xml:space="preserve">Expansion </t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Falsito</t>
+          <t>Cyc expansión</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>08:57:20</t>
+          <t>12:38:55</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>8.95579630</t>
+          <t>12.64874074</t>
         </is>
       </c>
       <c r="G253" t="n">
-        <v>6.63472915</v>
+        <v>3.48632581</v>
       </c>
       <c r="H253" t="n">
         <v>15</v>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Plana</t>
+          <t>Cyc</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -10823,39 +10823,39 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t xml:space="preserve">Expansión </t>
+          <t xml:space="preserve">Expansion </t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Cyc expansión</t>
+          <t>Cremallera expansión</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>12:57:35</t>
+          <t>28:31:15</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>12.95975000</t>
+          <t>28.52094136</t>
         </is>
       </c>
       <c r="G254" t="n">
-        <v>4.14989073</v>
+        <v>21.51673556</v>
       </c>
       <c r="H254" t="n">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Cyc</t>
+          <t>Plana</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -10864,29 +10864,29 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t xml:space="preserve">Expansión </t>
+          <t xml:space="preserve">Expansion </t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Cremallera expansión</t>
+          <t>Cerrar expansión</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>29:39:29</t>
+          <t>06:27:48</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>29.65822581</t>
+          <t>6.46357639</t>
         </is>
       </c>
       <c r="G255" t="n">
-        <v>22.95202407</v>
+        <v>6.03678744</v>
       </c>
       <c r="H255" t="n">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="I255" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -10905,39 +10905,39 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t xml:space="preserve">Expansión </t>
+          <t>Cuerpo</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Cerrar expansión</t>
+          <t>Reflectivo falso</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>07:45:03</t>
+          <t>04:20:33</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>7.75094444</t>
+          <t>4.34265700</t>
         </is>
       </c>
       <c r="G256" t="n">
-        <v>7.23734759</v>
+        <v>1.4191364</v>
       </c>
       <c r="H256" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>Plana</t>
+          <t>Dos agujas</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -10951,24 +10951,24 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Reflectivo falso</t>
+          <t>Velcro X6 falso</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>03:58:53</t>
+          <t>12:14:39</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>3.98155864</t>
+          <t>12.24433128</t>
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.09812485</v>
+        <v>5.0225272</v>
       </c>
       <c r="H257" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I257" t="inlineStr">
         <is>
@@ -10978,7 +10978,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -10992,34 +10992,34 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Velcro X6 falso</t>
+          <t>Cyc falso</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>13:14:06</t>
+          <t>11:09:32</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>13.23504630</t>
+          <t>11.15897059</t>
         </is>
       </c>
       <c r="G258" t="n">
-        <v>5.87910644</v>
+        <v>5.57476888</v>
       </c>
       <c r="H258" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>Dos agujas</t>
+          <t>Cyc</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -11033,34 +11033,34 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Cyc falso</t>
+          <t>Velcro angosto modulo</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>10:56:09</t>
+          <t>03:47:58</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>10.93585859</t>
+          <t>3.79958672</t>
         </is>
       </c>
       <c r="G259" t="n">
-        <v>5.50795486</v>
+        <v>3.03815019</v>
       </c>
       <c r="H259" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>Cyc</t>
+          <t>Dos agujas</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -11074,34 +11074,34 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Velcro angosto modulo</t>
+          <t>Velcro ancho modulo</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>03:55:47</t>
+          <t>03:24:15</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>3.92986508</t>
+          <t>3.40427609</t>
         </is>
       </c>
       <c r="G260" t="n">
-        <v>3.26568517</v>
+        <v>1.5464833</v>
       </c>
       <c r="H260" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Dos agujas</t>
+          <t>Plana</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -11115,34 +11115,34 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Velcro ancho modulo</t>
+          <t>Cyc módulo Lateral</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>03:30:17</t>
+          <t>08:49:32</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>3.50487778</t>
+          <t>8.82565104</t>
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.7135158</v>
+        <v>4.93198552</v>
       </c>
       <c r="H261" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Plana</t>
+          <t>Cyc</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -11156,24 +11156,24 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Cyc módulo Lateral</t>
+          <t>Cyc módulo superior</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>09:27:11</t>
+          <t>08:35:22</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>9.45309829</t>
+          <t>8.58948718</t>
         </is>
       </c>
       <c r="G262" t="n">
-        <v>5.22084546</v>
+        <v>5.03767717</v>
       </c>
       <c r="H262" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I262" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -11197,24 +11197,24 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Cyc módulo superior</t>
+          <t>Cyc fondo</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>09:38:31</t>
+          <t>07:54:27</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>9.64194444</t>
+          <t>7.90772222</t>
         </is>
       </c>
       <c r="G263" t="n">
-        <v>6.1204163</v>
+        <v>3.97864944</v>
       </c>
       <c r="H263" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I263" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -11238,34 +11238,34 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Cyc fondo</t>
+          <t>Argollas fondo</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>08:03:45</t>
+          <t>09:58:12</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>8.06256944</t>
+          <t>9.97003968</t>
         </is>
       </c>
       <c r="G264" t="n">
-        <v>4.43042342</v>
+        <v>6.38718608</v>
       </c>
       <c r="H264" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Cyc</t>
+          <t>Plana</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -11279,24 +11279,24 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Argollas fondo</t>
+          <t>Division</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>10:36:15</t>
+          <t>14:43:48</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>10.60418651</t>
+          <t>14.73021135</t>
         </is>
       </c>
       <c r="G265" t="n">
-        <v>7.61914342</v>
+        <v>5.01337745</v>
       </c>
       <c r="H265" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="I265" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -11315,39 +11315,39 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Cuerpo</t>
+          <t>Ribete</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Division</t>
+          <t>Ribete orejas</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>14:28:34</t>
+          <t>05:24:51</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>14.47624603</t>
+          <t>5.41443287</t>
         </is>
       </c>
       <c r="G266" t="n">
-        <v>3.54556231</v>
+        <v>4.28999405</v>
       </c>
       <c r="H266" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>Plana</t>
+          <t>Ribete</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -11361,24 +11361,24 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Ribete orejas</t>
+          <t>Ribete manijas</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>04:29:15</t>
+          <t>07:21:13</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>4.48752778</t>
+          <t>7.35387153</t>
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.46058046</v>
+        <v>3.87387403</v>
       </c>
       <c r="H267" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I267" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -11402,24 +11402,24 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Ribete manijas</t>
+          <t>Ribete frente + expansión + cuerpo</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>06:03:32</t>
+          <t>36:41:04</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>6.05901709</t>
+          <t>36.68451178</t>
         </is>
       </c>
       <c r="G268" t="n">
-        <v>2.02068905</v>
+        <v>27.22143398</v>
       </c>
       <c r="H268" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="I268" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -11443,24 +11443,24 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Ribete frente + expansión + cuerpo</t>
+          <t>Ribete cerrar espalda</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>40:55:54</t>
+          <t>16:00:52</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>40.93182870</t>
+          <t>16.01467803</t>
         </is>
       </c>
       <c r="G269" t="n">
-        <v>31.69561657</v>
+        <v>8.239735530000001</v>
       </c>
       <c r="H269" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I269" t="inlineStr">
         <is>
@@ -11470,72 +11470,72 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Didi 2024</t>
+          <t>Didi V1</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Ribete</t>
+          <t>Espalda</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Ribete cerrar espalda</t>
+          <t>hacer punta aletas</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>16:00:13</t>
+          <t>08:51:57</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>16.00361111</t>
+          <t>8.86583333</t>
         </is>
       </c>
       <c r="G270" t="n">
-        <v>8.305372589999999</v>
+        <v>0</v>
       </c>
       <c r="H270" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Ribete</t>
+          <t>plana</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Didi V1</t>
+          <t>Didi 2024</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Espalda</t>
+          <t>Patinar</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>hacer punta aletas</t>
+          <t>rematar moduloa</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>08:51:57</t>
+          <t>01:54:10</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>8.86583333</t>
+          <t>1.90277778</t>
         </is>
       </c>
       <c r="G271" t="n">
@@ -11546,13 +11546,13 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>plana</t>
+          <t>mesa</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -11561,39 +11561,39 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Patinar</t>
+          <t>Espalda</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>rematar moduloa</t>
+          <t>x aleta</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>01:54:10</t>
+          <t>03:35:14</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>1.90277778</t>
+          <t>3.58722222</t>
         </is>
       </c>
       <c r="G272" t="n">
-        <v>0</v>
+        <v>0.59376725</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>mesa</t>
+          <t>presilladora</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -11607,24 +11607,24 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>x aleta</t>
+          <t>presilla correa aleta</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>03:35:14</t>
+          <t>04:46:01</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>3.58722222</t>
+          <t>4.76694444</t>
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0.59376725</v>
+        <v>0</v>
       </c>
       <c r="H273" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I273" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -11643,22 +11643,22 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Espalda</t>
+          <t>Patinar</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>presilla correa aleta</t>
+          <t>prueba david</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>04:46:01</t>
+          <t>37:03:20</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>4.76694444</t>
+          <t>378.05555556</t>
         </is>
       </c>
       <c r="G274" t="n">
@@ -11669,7 +11669,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>presilladora</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -11766,22 +11766,22 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>borrar</t>
+          <t>Patinar</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>presilla arreglo Angel</t>
+          <t>mesa por arreglo de maquina</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>04:31:03</t>
+          <t>09:10:00</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>4.51750000</t>
+          <t>9.16666667</t>
         </is>
       </c>
       <c r="G277" t="n">
@@ -11792,13 +11792,13 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>presilladora</t>
+          <t>mesa</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -11807,22 +11807,22 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Patinar</t>
+          <t>Espalda</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>mesa por arreglo de maquina</t>
+          <t>presilla arreglo satelite</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>09:10:00</t>
+          <t>03:01:41</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>9.16666667</t>
+          <t>3.02805556</t>
         </is>
       </c>
       <c r="G278" t="n">
@@ -11833,13 +11833,13 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>mesa</t>
+          <t>presilladora</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -11853,28 +11853,315 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>presilla arreglo satelite</t>
+          <t>x patronadora</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>03:01:41</t>
+          <t>11:29:37</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>3.02805556</t>
+          <t>11.49375000</t>
         </is>
       </c>
       <c r="G279" t="n">
+        <v>1.94708333</v>
+      </c>
+      <c r="H279" t="n">
+        <v>2</v>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>patronadora</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>1094</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Didi 2024</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Espalda</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>x aleta</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>04:30:30</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>4.50833333</t>
+        </is>
+      </c>
+      <c r="G280" t="n">
         <v>0</v>
       </c>
-      <c r="H279" t="n">
+      <c r="H280" t="n">
         <v>1</v>
       </c>
-      <c r="I279" t="inlineStr">
+      <c r="I280" t="inlineStr">
         <is>
           <t>presilladora</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>1095</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Didi 2024</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Espalda</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>presilla aleta</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>03:14:39</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>3.24416667</t>
+        </is>
+      </c>
+      <c r="G281" t="n">
+        <v>0.85305556</v>
+      </c>
+      <c r="H281" t="n">
+        <v>2</v>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>presilladora</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>1105</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Didi 2024</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Espalda</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>x aleta</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>03:27:26</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>3.45722222</t>
+        </is>
+      </c>
+      <c r="G282" t="n">
+        <v>0</v>
+      </c>
+      <c r="H282" t="n">
+        <v>1</v>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>presilladora</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Didi 2024</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Expansion </t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>x aleta</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>04:36:52</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>4.61444444</t>
+        </is>
+      </c>
+      <c r="G283" t="n">
+        <v>0</v>
+      </c>
+      <c r="H283" t="n">
+        <v>1</v>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>presilladora</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Didi 2024</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Espalda</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>x espalda</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>10:27:07</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>10.45194444</t>
+        </is>
+      </c>
+      <c r="G284" t="n">
+        <v>0</v>
+      </c>
+      <c r="H284" t="n">
+        <v>3</v>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>patronadora</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Didi 2024</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Espalda</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>x espalda</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>09:04:01</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>9.06694444</t>
+        </is>
+      </c>
+      <c r="G285" t="n">
+        <v>0</v>
+      </c>
+      <c r="H285" t="n">
+        <v>1</v>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>patronadora</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Didi 2024</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Espalda</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>x aleta</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>04:02:21</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>4.03916667</t>
+        </is>
+      </c>
+      <c r="G286" t="n">
+        <v>0</v>
+      </c>
+      <c r="H286" t="n">
+        <v>1</v>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>Patronadora</t>
         </is>
       </c>
     </row>

--- a/datos_generales.xlsx
+++ b/datos_generales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I286"/>
+  <dimension ref="A1:I325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2879,19 +2879,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>02:34:24</t>
+          <t>02:26:48</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2.57340278</t>
+          <t>2.44689815</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.4605094</v>
+        <v>1.23129909</v>
       </c>
       <c r="H60" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -2961,19 +2961,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>04:28:09</t>
+          <t>04:13:51</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>4.46932540</t>
+          <t>4.23108586</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.62720878</v>
+        <v>0.81278896</v>
       </c>
       <c r="H62" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -3002,19 +3002,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>02:34:19</t>
+          <t>02:28:02</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2.57205556</t>
+          <t>2.46740741</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.82435129</v>
+        <v>0.78806856</v>
       </c>
       <c r="H63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -3043,19 +3043,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>03:35:55</t>
+          <t>03:27:08</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>3.59868056</t>
+          <t>3.45222222</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.47751836</v>
+        <v>0.5011379500000001</v>
       </c>
       <c r="H64" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -3084,19 +3084,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>03:24:09</t>
+          <t>03:23:06</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>3.40254630</t>
+          <t>3.38500000</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.91580441</v>
+        <v>0.84895877</v>
       </c>
       <c r="H65" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -3125,19 +3125,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>15:20:57</t>
+          <t>13:54:51</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>15.34922222</t>
+          <t>13.91428571</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>7.41740039</v>
+        <v>6.66683092</v>
       </c>
       <c r="H66" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -3166,19 +3166,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>03:28:45</t>
+          <t>03:31:24</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>3.47916667</t>
+          <t>3.52333333</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.2853754</v>
+        <v>0.27010012</v>
       </c>
       <c r="H67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -3207,19 +3207,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11:47:03</t>
+          <t>12:27:45</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>11.78436508</t>
+          <t>12.46263889</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>5.01603813</v>
+        <v>4.61506859</v>
       </c>
       <c r="H68" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -3248,19 +3248,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>06:02:18</t>
+          <t>05:44:50</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>6.03833333</t>
+          <t>5.74743056</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.53685378</v>
+        <v>2.26405104</v>
       </c>
       <c r="H69" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -3289,19 +3289,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>02:36:08</t>
+          <t>02:28:01</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2.60244444</t>
+          <t>2.46708333</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.36918338</v>
+        <v>0.45298285</v>
       </c>
       <c r="H70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -3330,19 +3330,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10:52:38</t>
+          <t>11:37:20</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>10.87722222</t>
+          <t>11.62222222</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.33650086</v>
+        <v>2.71891732</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -3371,19 +3371,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>02:31:41</t>
+          <t>02:56:14</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2.52819444</t>
+          <t>2.93722222</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.54152778</v>
+        <v>0.72808585</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -3412,19 +3412,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>05:32:37</t>
+          <t>05:26:17</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>5.54361111</t>
+          <t>5.43826389</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.84220686</v>
+        <v>0.75184999</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -3453,19 +3453,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>15:38:15</t>
+          <t>14:51:52</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>15.63763889</t>
+          <t>14.86459877</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.75377188</v>
+        <v>3.66564711</v>
       </c>
       <c r="H74" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -3494,19 +3494,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>13:25:15</t>
+          <t>12:39:45</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>13.42095238</t>
+          <t>12.66250000</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>6.61714644</v>
+        <v>6.50692314</v>
       </c>
       <c r="H75" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -3535,19 +3535,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>04:47:25</t>
+          <t>03:49:19</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>4.79027778</t>
+          <t>3.82217593</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.61074528</v>
+        <v>1.86809777</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -3576,19 +3576,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>15:34:15</t>
+          <t>14:30:03</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>15.57107639</t>
+          <t>14.50083333</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.73721634</v>
+        <v>4.21374603</v>
       </c>
       <c r="H77" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -3617,19 +3617,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>21:10:23</t>
+          <t>21:09:36</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>21.17311508</t>
+          <t>21.16021242</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5.14067994</v>
+        <v>5.64969152</v>
       </c>
       <c r="H78" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -3658,19 +3658,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>12:54:39</t>
+          <t>12:37:37</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>12.91087963</t>
+          <t>12.62719697</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.30480612</v>
+        <v>3.32601424</v>
       </c>
       <c r="H79" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -3699,19 +3699,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>22:23:14</t>
+          <t>22:17:29</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>22.38722222</t>
+          <t>22.29138889</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>7.33963621</v>
+        <v>7.09216461</v>
       </c>
       <c r="H80" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -3740,19 +3740,19 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11:54:09</t>
+          <t>09:40:22</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>11.90263889</t>
+          <t>9.67293210</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>6.58952554</v>
+        <v>6.51879011</v>
       </c>
       <c r="H81" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -3781,19 +3781,19 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>04:37:00</t>
+          <t>05:22:02</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>4.61684028</t>
+          <t>5.36725000</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.50569047</v>
+        <v>3.91344749</v>
       </c>
       <c r="H82" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -3822,19 +3822,19 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>06:36:48</t>
+          <t>06:56:01</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>6.61347222</t>
+          <t>6.93361111</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.82402778</v>
+        <v>1.71516649</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -3863,19 +3863,19 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>06:26:40</t>
+          <t>06:04:19</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>6.44458333</t>
+          <t>6.07215278</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.77347222</v>
+        <v>0.97373752</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -3904,19 +3904,19 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>15:41:09</t>
+          <t>14:12:28</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>15.68594444</t>
+          <t>14.20800926</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.76704323</v>
+        <v>5.46431268</v>
       </c>
       <c r="H85" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -3945,19 +3945,19 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>08:58:05</t>
+          <t>08:59:47</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>8.96805556</t>
+          <t>8.99652778</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.47259018</v>
+        <v>2.15253286</v>
       </c>
       <c r="H86" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -3986,19 +3986,19 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>08:28:42</t>
+          <t>09:13:32</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>8.47833333</t>
+          <t>9.22559524</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.20024422</v>
+        <v>2.95694896</v>
       </c>
       <c r="H87" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -4027,19 +4027,19 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>05:16:40</t>
+          <t>04:11:13</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>5.27777778</t>
+          <t>4.18712963</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.83971922</v>
+        <v>2.27531175</v>
       </c>
       <c r="H88" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -4068,19 +4068,19 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>47:18:02</t>
+          <t>39:41:49</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>47.30079861</t>
+          <t>39.69713333</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>24.85324728</v>
+        <v>22.40765823</v>
       </c>
       <c r="H89" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -4109,19 +4109,19 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>03:02:24</t>
+          <t>03:07:22</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>3.04004630</t>
+          <t>3.12302083</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.52697862</v>
+        <v>0.49466996</v>
       </c>
       <c r="H90" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -4150,19 +4150,19 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>14:47:17</t>
+          <t>15:36:33</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>14.78805556</t>
+          <t>15.60925926</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.47803299</v>
+        <v>3.66776119</v>
       </c>
       <c r="H91" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -4232,19 +4232,19 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>06:12:53</t>
+          <t>07:26:37</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>6.21493056</t>
+          <t>7.44380556</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.54189701</v>
+        <v>3.83783022</v>
       </c>
       <c r="H93" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -4273,19 +4273,19 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>08:21:29</t>
+          <t>08:58:52</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>8.35815972</t>
+          <t>8.98125000</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.21588293</v>
+        <v>1.66709885</v>
       </c>
       <c r="H94" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -4355,19 +4355,19 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>10:29:01</t>
+          <t>09:56:18</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>10.48361111</t>
+          <t>9.93858333</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>9.56202051</v>
+        <v>9.21751106</v>
       </c>
       <c r="H96" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -4437,19 +4437,19 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>16:45:39</t>
+          <t>21:03:13</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>16.76083333</t>
+          <t>21.05378788</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>7.92605814</v>
+        <v>15.537241</v>
       </c>
       <c r="H98" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -4478,19 +4478,19 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>08:01:39</t>
+          <t>10:14:44</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>8.02764957</t>
+          <t>10.24572222</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.45208799</v>
+        <v>7.12844159</v>
       </c>
       <c r="H99" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -4519,19 +4519,19 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>30:44:34</t>
+          <t>28:54:56</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>30.74297222</t>
+          <t>28.91570707</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>43.378223</v>
+        <v>41.76120544</v>
       </c>
       <c r="H100" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -4560,19 +4560,19 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>21:45:15</t>
+          <t>20:23:16</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>21.75438272</t>
+          <t>20.38780303</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>7.89795629</v>
+        <v>8.380796399999999</v>
       </c>
       <c r="H101" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -10054,19 +10054,19 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>08:26:56</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>8.44915033</t>
+          <t>8.50016813</t>
         </is>
       </c>
       <c r="G235" t="n">
-        <v>3.78466529</v>
+        <v>3.6764486</v>
       </c>
       <c r="H235" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I235" t="inlineStr">
         <is>
@@ -10095,19 +10095,19 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>06:43:30</t>
+          <t>06:14:22</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>6.72508170</t>
+          <t>6.23944444</t>
         </is>
       </c>
       <c r="G236" t="n">
-        <v>6.69174807</v>
+        <v>5.94830286</v>
       </c>
       <c r="H236" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I236" t="inlineStr">
         <is>
@@ -10136,19 +10136,19 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>14:01:18</t>
+          <t>10:01:37</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>14.02182540</t>
+          <t>10.02713675</t>
         </is>
       </c>
       <c r="G237" t="n">
-        <v>22.64428871</v>
+        <v>8.77431442</v>
       </c>
       <c r="H237" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I237" t="inlineStr">
         <is>
@@ -10177,19 +10177,19 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>03:24:31</t>
+          <t>03:26:37</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>3.40884503</t>
+          <t>3.44383838</t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.63405089</v>
+        <v>1.54280395</v>
       </c>
       <c r="H238" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I238" t="inlineStr">
         <is>
@@ -10218,19 +10218,19 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>05:42:15</t>
+          <t>05:46:06</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>5.70419192</t>
+          <t>5.76847222</t>
         </is>
       </c>
       <c r="G239" t="n">
-        <v>3.64876388</v>
+        <v>3.4999247</v>
       </c>
       <c r="H239" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I239" t="inlineStr">
         <is>
@@ -10300,19 +10300,19 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>07:31:28</t>
+          <t>06:53:21</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>7.52459596</t>
+          <t>6.88923868</t>
         </is>
       </c>
       <c r="G241" t="n">
-        <v>8.233298570000001</v>
+        <v>7.5536553</v>
       </c>
       <c r="H241" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I241" t="inlineStr">
         <is>
@@ -10341,19 +10341,19 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>10:41:30</t>
+          <t>11:35:18</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>10.69189276</t>
+          <t>11.58843333</t>
         </is>
       </c>
       <c r="G242" t="n">
-        <v>7.93225393</v>
+        <v>10.72637529</v>
       </c>
       <c r="H242" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I242" t="inlineStr">
         <is>
@@ -10382,19 +10382,19 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>05:34:02</t>
+          <t>05:21:28</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>5.56743590</t>
+          <t>5.35792593</t>
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.88234503</v>
+        <v>1.86690234</v>
       </c>
       <c r="H243" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I243" t="inlineStr">
         <is>
@@ -10423,19 +10423,19 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>07:56:52</t>
+          <t>08:41:09</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>7.94801282</t>
+          <t>8.68595238</t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>3.7624103</v>
+        <v>4.49709016</v>
       </c>
       <c r="H244" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I244" t="inlineStr">
         <is>
@@ -10464,19 +10464,19 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>11:08:09</t>
+          <t>11:22:35</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>11.13591592</t>
+          <t>11.37662698</t>
         </is>
       </c>
       <c r="G245" t="n">
-        <v>7.26885511</v>
+        <v>7.43617852</v>
       </c>
       <c r="H245" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I245" t="inlineStr">
         <is>
@@ -10505,19 +10505,19 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>10:55:31</t>
+          <t>10:55:32</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>10.92540741</t>
+          <t>10.92555556</t>
         </is>
       </c>
       <c r="G246" t="n">
-        <v>6.1962674</v>
+        <v>5.99951014</v>
       </c>
       <c r="H246" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I246" t="inlineStr">
         <is>
@@ -10546,19 +10546,19 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>12:58:15</t>
+          <t>12:58:14</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>12.97109568</t>
+          <t>12.97075103</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>13.55594908</v>
+        <v>11.20934213</v>
       </c>
       <c r="H247" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I247" t="inlineStr">
         <is>
@@ -10587,19 +10587,19 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>02:33:16</t>
+          <t>02:29:19</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>2.55450000</t>
+          <t>2.48874228</t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.27350292</v>
+        <v>1.19255435</v>
       </c>
       <c r="H248" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I248" t="inlineStr">
         <is>
@@ -10628,19 +10628,19 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>03:09:52</t>
+          <t>03:09:14</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>3.16444444</t>
+          <t>3.15394097</t>
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.25269921</v>
+        <v>1.21360278</v>
       </c>
       <c r="H249" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I249" t="inlineStr">
         <is>
@@ -10669,19 +10669,19 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>02:19:28</t>
+          <t>02:37:25</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>2.32465278</t>
+          <t>2.62364379</t>
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.93385155</v>
+        <v>1.50036995</v>
       </c>
       <c r="H250" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I250" t="inlineStr">
         <is>
@@ -10710,19 +10710,19 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>10:31:37</t>
+          <t>10:18:47</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>10.52715278</t>
+          <t>10.31309179</t>
         </is>
       </c>
       <c r="G251" t="n">
-        <v>6.32758373</v>
+        <v>5.72530074</v>
       </c>
       <c r="H251" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I251" t="inlineStr">
         <is>
@@ -10751,19 +10751,19 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>08:57:20</t>
+          <t>08:25:01</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>8.95579630</t>
+          <t>8.41712418</t>
         </is>
       </c>
       <c r="G252" t="n">
-        <v>6.63472915</v>
+        <v>6.41705353</v>
       </c>
       <c r="H252" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I252" t="inlineStr">
         <is>
@@ -10792,19 +10792,19 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>12:38:55</t>
+          <t>13:05:35</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>12.64874074</t>
+          <t>13.09308824</t>
         </is>
       </c>
       <c r="G253" t="n">
-        <v>3.48632581</v>
+        <v>3.6041043</v>
       </c>
       <c r="H253" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I253" t="inlineStr">
         <is>
@@ -10833,19 +10833,19 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>28:31:15</t>
+          <t>28:11:34</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>28.52094136</t>
+          <t>28.19301901</t>
         </is>
       </c>
       <c r="G254" t="n">
-        <v>21.51673556</v>
+        <v>21.01593619</v>
       </c>
       <c r="H254" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I254" t="inlineStr">
         <is>
@@ -10874,19 +10874,19 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>06:27:48</t>
+          <t>07:30:43</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>6.46357639</t>
+          <t>7.51212963</t>
         </is>
       </c>
       <c r="G255" t="n">
-        <v>6.03678744</v>
+        <v>6.62831019</v>
       </c>
       <c r="H255" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I255" t="inlineStr">
         <is>
@@ -10915,19 +10915,19 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>04:20:33</t>
+          <t>04:09:33</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>4.34265700</t>
+          <t>4.15919192</t>
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.4191364</v>
+        <v>1.26899634</v>
       </c>
       <c r="H256" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I256" t="inlineStr">
         <is>
@@ -10956,19 +10956,19 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>12:14:39</t>
+          <t>12:01:38</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>12.24433128</t>
+          <t>12.02730287</t>
         </is>
       </c>
       <c r="G257" t="n">
-        <v>5.0225272</v>
+        <v>4.78866666</v>
       </c>
       <c r="H257" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I257" t="inlineStr">
         <is>
@@ -10997,19 +10997,19 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>11:09:32</t>
+          <t>10:22:29</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>11.15897059</t>
+          <t>10.37477053</t>
         </is>
       </c>
       <c r="G258" t="n">
-        <v>5.57476888</v>
+        <v>5.1633342</v>
       </c>
       <c r="H258" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I258" t="inlineStr">
         <is>
@@ -11038,19 +11038,19 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>03:47:58</t>
+          <t>03:38:14</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>3.79958672</t>
+          <t>3.63742521</t>
         </is>
       </c>
       <c r="G259" t="n">
-        <v>3.03815019</v>
+        <v>2.72993186</v>
       </c>
       <c r="H259" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I259" t="inlineStr">
         <is>
@@ -11079,19 +11079,19 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>03:24:15</t>
+          <t>03:38:09</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>3.40427609</t>
+          <t>3.63597884</t>
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.5464833</v>
+        <v>1.65067163</v>
       </c>
       <c r="H260" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I260" t="inlineStr">
         <is>
@@ -11120,19 +11120,19 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>08:49:32</t>
+          <t>08:45:56</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>8.82565104</t>
+          <t>8.76576768</t>
         </is>
       </c>
       <c r="G261" t="n">
-        <v>4.93198552</v>
+        <v>4.34387125</v>
       </c>
       <c r="H261" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="I261" t="inlineStr">
         <is>
@@ -11161,19 +11161,19 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>08:35:22</t>
+          <t>08:36:29</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>8.58948718</t>
+          <t>8.60830409</t>
         </is>
       </c>
       <c r="G262" t="n">
-        <v>5.03767717</v>
+        <v>4.42439117</v>
       </c>
       <c r="H262" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I262" t="inlineStr">
         <is>
@@ -11202,19 +11202,19 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>07:54:27</t>
+          <t>09:06:14</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>7.90772222</t>
+          <t>9.10405754</t>
         </is>
       </c>
       <c r="G263" t="n">
-        <v>3.97864944</v>
+        <v>6.56504917</v>
       </c>
       <c r="H263" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I263" t="inlineStr">
         <is>
@@ -11243,19 +11243,19 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>09:58:12</t>
+          <t>09:40:00</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>9.97003968</t>
+          <t>9.66677579</t>
         </is>
       </c>
       <c r="G264" t="n">
-        <v>6.38718608</v>
+        <v>5.61205465</v>
       </c>
       <c r="H264" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I264" t="inlineStr">
         <is>
@@ -11284,19 +11284,19 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>14:43:48</t>
+          <t>14:57:38</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>14.73021135</t>
+          <t>14.96082011</t>
         </is>
       </c>
       <c r="G265" t="n">
-        <v>5.01337745</v>
+        <v>6.32933684</v>
       </c>
       <c r="H265" t="n">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I265" t="inlineStr">
         <is>
@@ -11325,19 +11325,19 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>05:24:51</t>
+          <t>05:20:56</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>5.41443287</t>
+          <t>5.34913333</t>
         </is>
       </c>
       <c r="G266" t="n">
-        <v>4.28999405</v>
+        <v>4.19756555</v>
       </c>
       <c r="H266" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I266" t="inlineStr">
         <is>
@@ -11366,19 +11366,19 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>07:21:13</t>
+          <t>07:03:26</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>7.35387153</t>
+          <t>7.05722222</t>
         </is>
       </c>
       <c r="G267" t="n">
-        <v>3.87387403</v>
+        <v>3.82090919</v>
       </c>
       <c r="H267" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I267" t="inlineStr">
         <is>
@@ -11407,19 +11407,19 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>36:41:04</t>
+          <t>41:48:11</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>36.68451178</t>
+          <t>41.80326227</t>
         </is>
       </c>
       <c r="G268" t="n">
-        <v>27.22143398</v>
+        <v>35.71113469</v>
       </c>
       <c r="H268" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I268" t="inlineStr">
         <is>
@@ -11448,19 +11448,19 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>16:00:52</t>
+          <t>18:33:05</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>16.01467803</t>
+          <t>18.55151111</t>
         </is>
       </c>
       <c r="G269" t="n">
-        <v>8.239735530000001</v>
+        <v>14.5786599</v>
       </c>
       <c r="H269" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I269" t="inlineStr">
         <is>
@@ -12162,6 +12162,1605 @@
       <c r="I286" t="inlineStr">
         <is>
           <t>Patronadora</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>1169</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>MO - 011 Morral licitación</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Cuerpo</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>montar cremallera frente</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>02:07:52</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>2.13111111</t>
+        </is>
+      </c>
+      <c r="G287" t="n">
+        <v>0</v>
+      </c>
+      <c r="H287" t="n">
+        <v>1</v>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>Plana</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>1170</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>MO - 011 Morral licitación</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Cuerpo</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>cyc bolsillo frente</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>06:48:35</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>6.80972222</t>
+        </is>
+      </c>
+      <c r="G288" t="n">
+        <v>0</v>
+      </c>
+      <c r="H288" t="n">
+        <v>1</v>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>Cyc</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>1172</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>MO - 011 Morral licitación</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Cuerpo</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>x manijas</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>05:08:17</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>5.13805556</t>
+        </is>
+      </c>
+      <c r="G289" t="n">
+        <v>0</v>
+      </c>
+      <c r="H289" t="n">
+        <v>1</v>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>plana</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>1173</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>MO - 011 Morral licitación</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Cuerpo</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>aleta</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>02:07:22</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>2.12277778</t>
+        </is>
+      </c>
+      <c r="G290" t="n">
+        <v>0</v>
+      </c>
+      <c r="H290" t="n">
+        <v>1</v>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>plana</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>1174</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>MO - 011 Morral licitación</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Cuerpo</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>accesorios espalda</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>12:11:45</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>12.19597222</t>
+        </is>
+      </c>
+      <c r="G291" t="n">
+        <v>2.15152778</v>
+      </c>
+      <c r="H291" t="n">
+        <v>2</v>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>plana</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>1175</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>MO - 011 Morral licitación</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Cuerpo</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>cerrar</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>22:04:54</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>22.08173611</t>
+        </is>
+      </c>
+      <c r="G292" t="n">
+        <v>2.3841907</v>
+      </c>
+      <c r="H292" t="n">
+        <v>4</v>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>ribete</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>1177</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>MO - 011 Morral licitación</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Cuerpo</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>bolsillo lateral</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>14:18:18</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>14.30500000</t>
+        </is>
+      </c>
+      <c r="G293" t="n">
+        <v>0</v>
+      </c>
+      <c r="H293" t="n">
+        <v>1</v>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>plana</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>1178</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>MO - 011 Morral licitación</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Frente</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>montar bolsillo a frente</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>06:54:37</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>6.91027778</t>
+        </is>
+      </c>
+      <c r="G294" t="n">
+        <v>0</v>
+      </c>
+      <c r="H294" t="n">
+        <v>1</v>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>plna</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>1179</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>MO - 011 Morral licitación</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Patinar</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>rematar bolso</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>10:08:20</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>10.13888889</t>
+        </is>
+      </c>
+      <c r="G295" t="n">
+        <v>0</v>
+      </c>
+      <c r="H295" t="n">
+        <v>1</v>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>mesa</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>1180</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Didi 2024</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Patinar</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>rematar modulos</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>19:35:35</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>197.59305556</t>
+        </is>
+      </c>
+      <c r="G296" t="n">
+        <v>0</v>
+      </c>
+      <c r="H296" t="n">
+        <v>1</v>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>mesa</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>1182</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Tula</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Cuerpo</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>cyc forro</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>39:38:03</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>39.63416667</t>
+        </is>
+      </c>
+      <c r="G297" t="n">
+        <v>0</v>
+      </c>
+      <c r="H297" t="n">
+        <v>1</v>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>cyc</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>1183</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Tula</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Cuerpo</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>montar correa</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>28:17:30</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>28.29166667</t>
+        </is>
+      </c>
+      <c r="G298" t="n">
+        <v>0</v>
+      </c>
+      <c r="H298" t="n">
+        <v>1</v>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>dos agujas</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>1189</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Pentagrama</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Frente</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Dobladillar Tarjeteros</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>14:01:03</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>14.01750000</t>
+        </is>
+      </c>
+      <c r="G299" t="n">
+        <v>0</v>
+      </c>
+      <c r="H299" t="n">
+        <v>1</v>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>plana</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>1209</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Pentagrama</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Cuerpo</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>cyc fondos</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>07:08:15</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>7.13750000</t>
+        </is>
+      </c>
+      <c r="G300" t="n">
+        <v>0</v>
+      </c>
+      <c r="H300" t="n">
+        <v>1</v>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>cyc</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Pentagrama</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Espalda</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>cyc bolsillo pc</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>12:52:50</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>12.88055556</t>
+        </is>
+      </c>
+      <c r="G301" t="n">
+        <v>0</v>
+      </c>
+      <c r="H301" t="n">
+        <v>1</v>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>cyc</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>1219</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Pentagrama</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Espalda</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>cyc bolsillo tablet</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>01:21:45</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>1.36250000</t>
+        </is>
+      </c>
+      <c r="G302" t="n">
+        <v>0</v>
+      </c>
+      <c r="H302" t="n">
+        <v>1</v>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>cyc</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>1222</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Pentagrama</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Espalda</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>montar bolsillo tablet</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>19:05:25</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>19.09027778</t>
+        </is>
+      </c>
+      <c r="G303" t="n">
+        <v>0</v>
+      </c>
+      <c r="H303" t="n">
+        <v>1</v>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>plana</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>1223</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Pentagrama</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Espalda</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>montar Velcro  reata</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>11:40:45</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>11.67916667</t>
+        </is>
+      </c>
+      <c r="G304" t="n">
+        <v>0</v>
+      </c>
+      <c r="H304" t="n">
+        <v>1</v>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>plana</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>1242</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Pentagrama</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Cuerpo</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>cyc manopla</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>07:54:45</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>7.91250000</t>
+        </is>
+      </c>
+      <c r="G305" t="n">
+        <v>0</v>
+      </c>
+      <c r="H305" t="n">
+        <v>1</v>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>cyc</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>1245</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Masglo pequeño</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Cuerpo</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Cyc Cuerpo</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>08:51:40</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>8.86111111</t>
+        </is>
+      </c>
+      <c r="G306" t="n">
+        <v>0.69305556</v>
+      </c>
+      <c r="H306" t="n">
+        <v>2</v>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>cyc</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>1246</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Masglo pequeño</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Cuerpo</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Cyc lateral</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>39:05:22</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>39.08951389</t>
+        </is>
+      </c>
+      <c r="G307" t="n">
+        <v>61.29560033</v>
+      </c>
+      <c r="H307" t="n">
+        <v>4</v>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>cyc</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>1247</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Masglo pequeño</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Cuerpo</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>malla a cremallera</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>05:39:44</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>5.66222222</t>
+        </is>
+      </c>
+      <c r="G308" t="n">
+        <v>2.00027778</v>
+      </c>
+      <c r="H308" t="n">
+        <v>2</v>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>plana</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>1249</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Masglo pequeño</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Cuerpo</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>montar malla a cuerpo</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>01:14:27</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>1.24083333</t>
+        </is>
+      </c>
+      <c r="G309" t="n">
+        <v>0</v>
+      </c>
+      <c r="H309" t="n">
+        <v>1</v>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>plana</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>1259</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Didi 2024</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Patinar</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>remarquillar y empacar chaqueta</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>-2:-9:-2</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>-1.14027778</t>
+        </is>
+      </c>
+      <c r="G310" t="n">
+        <v>0</v>
+      </c>
+      <c r="H310" t="n">
+        <v>1</v>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>mesa</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>1267</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Didi 2024</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Patinar</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>remarquillar y empacar chaqueta</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>03:11:35</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>3.19305556</t>
+        </is>
+      </c>
+      <c r="G311" t="n">
+        <v>3.28150831</v>
+      </c>
+      <c r="H311" t="n">
+        <v>32</v>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>mesa</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>1276</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Morral nivel</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Frente</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Montse cremallera pestaña frente</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>18:10:52</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>18.18111111</t>
+        </is>
+      </c>
+      <c r="G312" t="n">
+        <v>0</v>
+      </c>
+      <c r="H312" t="n">
+        <v>1</v>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>plana</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>1278</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Morral nivel</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Frente</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>cremallera bol inferior + seda 1 lado</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>05:22:12</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>5.37000000</t>
+        </is>
+      </c>
+      <c r="G313" t="n">
+        <v>0</v>
+      </c>
+      <c r="H313" t="n">
+        <v>1</v>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>plana</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>1283</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Morral nivel</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Espalda</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>cerrar manija</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>05:15:27</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>5.25750000</t>
+        </is>
+      </c>
+      <c r="G314" t="n">
+        <v>1.23083333</v>
+      </c>
+      <c r="H314" t="n">
+        <v>2</v>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>plana</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>1284</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Morral nivel</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Espalda</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>X morralera</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>06:07:44</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>6.12888889</t>
+        </is>
+      </c>
+      <c r="G315" t="n">
+        <v>0.43583333</v>
+      </c>
+      <c r="H315" t="n">
+        <v>2</v>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>plana</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>1285</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Morral nivel</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Espalda</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>hacer aleta</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>01:50:07</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>1.83527778</t>
+        </is>
+      </c>
+      <c r="G316" t="n">
+        <v>0</v>
+      </c>
+      <c r="H316" t="n">
+        <v>1</v>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>plana</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>1287</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Morral nivel</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Espalda</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Velcro bol interno</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>04:12:00</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>4.20000000</t>
+        </is>
+      </c>
+      <c r="G317" t="n">
+        <v>1.11527778</v>
+      </c>
+      <c r="H317" t="n">
+        <v>2</v>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>plana</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>1288</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Morral nivel</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Espalda</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Velcro reata interno</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>04:44:23</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>4.73972222</t>
+        </is>
+      </c>
+      <c r="G318" t="n">
+        <v>0</v>
+      </c>
+      <c r="H318" t="n">
+        <v>1</v>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>plana</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>1289</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Morral nivel</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Espalda</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>fija bolsillo pc</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>08:07:47</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>8.12986111</t>
+        </is>
+      </c>
+      <c r="G319" t="n">
+        <v>0.14513889</v>
+      </c>
+      <c r="H319" t="n">
+        <v>2</v>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>plana</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>1290</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Morral nivel</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Espalda</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>cyc espalda</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>06:08:15</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>6.13750000</t>
+        </is>
+      </c>
+      <c r="G320" t="n">
+        <v>0</v>
+      </c>
+      <c r="H320" t="n">
+        <v>1</v>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>cyc</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>1293</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Morral nivel</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Cuerpo</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>manopla</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>06:46:01</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>6.76694444</t>
+        </is>
+      </c>
+      <c r="G321" t="n">
+        <v>0</v>
+      </c>
+      <c r="H321" t="n">
+        <v>1</v>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>plana</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>1294</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Morral nivel</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Cuerpo</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>com lat + manopla</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>12:01:00</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>12.01666667</t>
+        </is>
+      </c>
+      <c r="G322" t="n">
+        <v>0</v>
+      </c>
+      <c r="H322" t="n">
+        <v>1</v>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>plana</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>1295</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Morral nivel</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Cuerpo</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>cremallera falso + seda 1 lado</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>10:04:46</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>10.07944444</t>
+        </is>
+      </c>
+      <c r="G323" t="n">
+        <v>0</v>
+      </c>
+      <c r="H323" t="n">
+        <v>1</v>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>plana</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>1297</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Morral nivel</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Cuerpo</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>boca bol lateral</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>04:16:43</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>4.27861111</t>
+        </is>
+      </c>
+      <c r="G324" t="n">
+        <v>0</v>
+      </c>
+      <c r="H324" t="n">
+        <v>1</v>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>plana</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>1298</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Morral nivel</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Cuerpo</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>montar bol lateral</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>03:00:30</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>3.00833333</t>
+        </is>
+      </c>
+      <c r="G325" t="n">
+        <v>0</v>
+      </c>
+      <c r="H325" t="n">
+        <v>1</v>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>plana</t>
         </is>
       </c>
     </row>
